--- a/assets/disciplinas/LOT2047.xlsx
+++ b/assets/disciplinas/LOT2047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao estudante conhecimentos práticos sobre os a engenharia bioquímica, os processos bioquímicos e a enzimologia.</t>
+    <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Condução de processos bioquímicos desde as etapas de preparação e esterilização de meio até as etapas de recuperação e caracterização de produtos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -95,13 +92,6 @@
   </si>
   <si>
     <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Fermentação submersa em biorreator, envolvendo montagem, esterilização, adição de meio, acompanhamento do cultivo e análise de amostras.
-2. Fermentação em estado sólido seguida de recuperação e caracterização das enzimas produzidas.
-3. Projeto de purificação de enzimas via software: os grupos recebem uma mistura problema e apresentam seqüências lógicas de purificação com os respectivos resultados e sua discussão.
-4. Caracterização de enzimas quanto a massa molar: calibração de uma coluna cromatográfica com proteínas conhecidas e determinação da massa molar de enzima problema; determinação da enzima problema via absorção em 280 nm e por atividade específica.
-5. Uso de amilases de origem vegetal e microbiana para processamento de amido e subsequente fermentação a etanol.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -120,29 +110,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Relatórios e seminários sobre os experimentos</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética entre os relatórios e seminários</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial - Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.
-2. SCHMIDELL, W., LIMA, U.A., AQUARONE, E., BORZANI, W. Biotecnologia Industrial - Engenharia Bioquímica (Vol 2), São Paulo: Edgard Blucher Ltda, 2001.
-3. COPELAND R.A. Enzymes: a practical introduction to structure, mechanism and data analysis, New York: Academic Press, 2000
-4. BON, E.S., FERRARA, M.A., CORVO, M.L. (Eds.) Enzimas em Biotecnologia - Produção, aplicação e mercado, Rio de Janeiro: Editora Interciêcnia, 2008.
-5. Godfrey T. e West S (eds), Industrial Enzymology, Chapman-Hall, New York, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -509,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,34 +617,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -675,85 +661,74 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2047.xlsx
+++ b/assets/disciplinas/LOT2047.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao estudante conhecimentos práticos sobre os a engenharia bioquímica, os processos bioquímicos e a enzimologia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3444370 - Rita de Cássia Lacerda Brambilla Rodrigues</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Condução de processos bioquímicos desde as etapas de preparação e esterilização de meio até as etapas de recuperação e caracterização de produtos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -92,6 +95,13 @@
   </si>
   <si>
     <t>Programa:</t>
+  </si>
+  <si>
+    <t>1. Fermentação submersa em biorreator, envolvendo montagem, esterilização, adição de meio, acompanhamento do cultivo e análise de amostras.
+2. Fermentação em estado sólido seguida de recuperação e caracterização das enzimas produzidas.
+3. Projeto de purificação de enzimas via software: os grupos recebem uma mistura problema e apresentam seqüências lógicas de purificação com os respectivos resultados e sua discussão.
+4. Caracterização de enzimas quanto a massa molar: calibração de uma coluna cromatográfica com proteínas conhecidas e determinação da massa molar de enzima problema; determinação da enzima problema via absorção em 280 nm e por atividade específica.
+5. Uso de amilases de origem vegetal e microbiana para processamento de amido e subsequente fermentação a etanol.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -110,22 +120,29 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Relatórios e seminários sobre os experimentos</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Relatórios e seminários sobre os experimentos</t>
+    <t>Média aritmética entre os relatórios e seminários</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética entre os relatórios e seminários</t>
+    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de prova escrita (PR) e a média final (MF) será calculada pela equação: MF = (NF + PR)/2.</t>
+    <t>1. BORZANI, W., SCHMIDELL, W., LIMA, U.A., AQUARONE, E. Biotecnologia Industrial - Fundamentos (Vol 1). São Paulo: Edgard Blucher Ltda, 2001.
+2. SCHMIDELL, W., LIMA, U.A., AQUARONE, E., BORZANI, W. Biotecnologia Industrial - Engenharia Bioquímica (Vol 2), São Paulo: Edgard Blucher Ltda, 2001.
+3. COPELAND R.A. Enzymes: a practical introduction to structure, mechanism and data analysis, New York: Academic Press, 2000
+4. BON, E.S., FERRARA, M.A., CORVO, M.L. (Eds.) Enzimas em Biotecnologia - Produção, aplicação e mercado, Rio de Janeiro: Editora Interciêcnia, 2008.
+5. Godfrey T. e West S (eds), Industrial Enzymology, Chapman-Hall, New York, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -492,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -617,37 +634,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,74 +675,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
